--- a/results/case2/data_uniquie_case2_consq_recipe.xlsx
+++ b/results/case2/data_uniquie_case2_consq_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -85,18 +85,12 @@
     <t>'MUD manufacturing' (unit, GLO, None)</t>
   </si>
   <si>
-    <t>'MUD packgaging materials' (kilogram, GLO, None)</t>
-  </si>
-  <si>
     <t>'MUD raw materials' (unit, GLO, None)</t>
   </si>
   <si>
     <t>'SUD manufacturing' (unit, GLO, None)</t>
   </si>
   <si>
-    <t>'SUD packgaging materials' (kilogram, GLO, None)</t>
-  </si>
-  <si>
     <t>'SUD raw materials' (unit, GLO, None)</t>
   </si>
   <si>
@@ -116,6 +110,9 @@
   </si>
   <si>
     <t>'mechanical disinfection' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'packgaging materials' (kilogram, GLO, None)</t>
   </si>
   <si>
     <t>'scalpel' (unit, GLO, None)</t>
@@ -485,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -697,67 +694,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.006992716214137956</v>
+        <v>4.974384473893809E-06</v>
       </c>
       <c r="C4">
-        <v>2.903410328461269</v>
+        <v>0.0008808656327696843</v>
       </c>
       <c r="D4">
-        <v>0.07038872091512657</v>
+        <v>0.0001773544663215081</v>
       </c>
       <c r="E4">
-        <v>0.09440798150229958</v>
+        <v>0.00126134740824985</v>
       </c>
       <c r="F4">
-        <v>8.341453936190511</v>
+        <v>0.005609439940479135</v>
       </c>
       <c r="G4">
-        <v>1.848787733544334</v>
+        <v>0.0002326559959370479</v>
       </c>
       <c r="H4">
-        <v>0.0007213160948472263</v>
+        <v>8.540604213338202E-08</v>
       </c>
       <c r="I4">
-        <v>0.00010237509832541</v>
+        <v>3.029168926799723E-08</v>
       </c>
       <c r="J4">
-        <v>0.08131587009617988</v>
+        <v>0.0001600139671125152</v>
       </c>
       <c r="K4">
-        <v>1.694323758545741</v>
+        <v>0.004880110399595678</v>
       </c>
       <c r="L4">
-        <v>0.1197926438179338</v>
+        <v>-3.029014169808615E-05</v>
       </c>
       <c r="M4">
-        <v>0.1250208509453824</v>
+        <v>5.715679770863124E-05</v>
       </c>
       <c r="N4">
-        <v>0.003473829233266421</v>
+        <v>0.0001886544142667898</v>
       </c>
       <c r="O4">
-        <v>4.730718295596804E-07</v>
+        <v>2.604943850789606E-09</v>
       </c>
       <c r="P4">
-        <v>0.003900919283878606</v>
+        <v>2.893241396646329E-06</v>
       </c>
       <c r="Q4">
-        <v>0.006715645330386317</v>
+        <v>8.670297068761053E-06</v>
       </c>
       <c r="R4">
-        <v>0.007422234079968556</v>
+        <v>8.869001415159467E-06</v>
       </c>
       <c r="S4">
-        <v>0.04519907280873281</v>
+        <v>3.276360617559955E-07</v>
       </c>
       <c r="T4">
-        <v>1.231828982737356E-08</v>
+        <v>5.54968831659287E-12</v>
       </c>
       <c r="U4">
-        <v>5.909946425618965E-06</v>
+        <v>4.291447126823519E-09</v>
       </c>
       <c r="V4">
-        <v>0.712045791316418</v>
+        <v>0.000124165036216885</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -765,67 +762,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>4.974384473893809E-06</v>
+        <v>0.01723553481791422</v>
       </c>
       <c r="C5">
-        <v>0.0008808656327696843</v>
+        <v>0.8423395401469569</v>
       </c>
       <c r="D5">
-        <v>0.0001773544663215081</v>
+        <v>0.6379439843549463</v>
       </c>
       <c r="E5">
-        <v>0.00126134740824985</v>
+        <v>0.8601191273965278</v>
       </c>
       <c r="F5">
-        <v>0.005609439940479135</v>
+        <v>141.2756881126531</v>
       </c>
       <c r="G5">
-        <v>0.0002326559959370479</v>
+        <v>0.243308108612596</v>
       </c>
       <c r="H5">
-        <v>8.540604213338202E-08</v>
+        <v>0.00122999933319728</v>
       </c>
       <c r="I5">
-        <v>3.029168926799723E-08</v>
+        <v>3.177460829846986E-05</v>
       </c>
       <c r="J5">
-        <v>0.0001600139671125152</v>
+        <v>0.148650852556396</v>
       </c>
       <c r="K5">
-        <v>0.004880110399595678</v>
+        <v>15.65297737556386</v>
       </c>
       <c r="L5">
-        <v>-3.029014169808615E-05</v>
+        <v>0.06108873396627117</v>
       </c>
       <c r="M5">
-        <v>5.715679770863124E-05</v>
+        <v>0.1511758424705208</v>
       </c>
       <c r="N5">
-        <v>0.0001886544142667898</v>
+        <v>-0.04907182685086764</v>
       </c>
       <c r="O5">
-        <v>2.604943850789606E-09</v>
+        <v>6.540543857166419E-07</v>
       </c>
       <c r="P5">
-        <v>2.893241396646329E-06</v>
+        <v>0.005613009697945993</v>
       </c>
       <c r="Q5">
-        <v>8.670297068761053E-06</v>
+        <v>0.00464551304481565</v>
       </c>
       <c r="R5">
-        <v>8.869001415159467E-06</v>
+        <v>0.004776248445496909</v>
       </c>
       <c r="S5">
-        <v>3.276360617559955E-07</v>
+        <v>0.006116465823724678</v>
       </c>
       <c r="T5">
-        <v>5.54968831659287E-12</v>
+        <v>1.094005271080916E-08</v>
       </c>
       <c r="U5">
-        <v>4.291447126823519E-09</v>
+        <v>8.385986174049962E-06</v>
       </c>
       <c r="V5">
-        <v>0.000124165036216885</v>
+        <v>0.05016967688746018</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -833,67 +830,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.01723553481791422</v>
+        <v>0.001022410066095151</v>
       </c>
       <c r="C6">
-        <v>0.8423395401469569</v>
+        <v>0.1671249428568392</v>
       </c>
       <c r="D6">
-        <v>0.6379439843549463</v>
+        <v>0.02542561160875021</v>
       </c>
       <c r="E6">
-        <v>0.8601191273965278</v>
+        <v>0.03525272080351417</v>
       </c>
       <c r="F6">
-        <v>141.2756881126531</v>
+        <v>7.355646476855473</v>
       </c>
       <c r="G6">
-        <v>0.243308108612596</v>
+        <v>0.06922828462367782</v>
       </c>
       <c r="H6">
-        <v>0.00122999933319728</v>
+        <v>5.755860513062121E-05</v>
       </c>
       <c r="I6">
-        <v>3.177460829846986E-05</v>
+        <v>5.097098925955963E-06</v>
       </c>
       <c r="J6">
-        <v>0.148650852556396</v>
+        <v>0.01405179601617275</v>
       </c>
       <c r="K6">
-        <v>15.65297737556386</v>
+        <v>0.3317613424254143</v>
       </c>
       <c r="L6">
-        <v>0.06108873396627117</v>
+        <v>0.002150464193902244</v>
       </c>
       <c r="M6">
-        <v>0.1511758424705208</v>
+        <v>0.001500136603377085</v>
       </c>
       <c r="N6">
-        <v>-0.04907182685086764</v>
+        <v>0.006047829516795218</v>
       </c>
       <c r="O6">
-        <v>6.540543857166419E-07</v>
+        <v>6.892006735589858E-08</v>
       </c>
       <c r="P6">
-        <v>0.005613009697945993</v>
+        <v>0.0004143913475574357</v>
       </c>
       <c r="Q6">
-        <v>0.00464551304481565</v>
+        <v>0.0003686160854540636</v>
       </c>
       <c r="R6">
-        <v>0.004776248445496909</v>
+        <v>0.0003943382353830242</v>
       </c>
       <c r="S6">
-        <v>0.006116465823724678</v>
+        <v>0.001892874627284955</v>
       </c>
       <c r="T6">
-        <v>1.094005271080916E-08</v>
+        <v>8.929309321015938E-10</v>
       </c>
       <c r="U6">
-        <v>8.385986174049962E-06</v>
+        <v>5.423183344659127E-07</v>
       </c>
       <c r="V6">
-        <v>0.05016967688746018</v>
+        <v>0.02615081602738607</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -901,67 +898,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.005772319522611355</v>
+        <v>0.006959574691050885</v>
       </c>
       <c r="C7">
-        <v>2.224921684457807</v>
+        <v>0.6155803870970238</v>
       </c>
       <c r="D7">
-        <v>0.06086610701672942</v>
+        <v>0.269075098636913</v>
       </c>
       <c r="E7">
-        <v>0.08128839694623378</v>
+        <v>0.3180248934263792</v>
       </c>
       <c r="F7">
-        <v>7.538244155922095</v>
+        <v>24.63805979128312</v>
       </c>
       <c r="G7">
-        <v>1.300874184788209</v>
+        <v>0.1593620578017891</v>
       </c>
       <c r="H7">
-        <v>0.0006950721282887574</v>
+        <v>-0.0002195002737054654</v>
       </c>
       <c r="I7">
-        <v>0.0001565284558271611</v>
+        <v>0.001596620081800124</v>
       </c>
       <c r="J7">
-        <v>0.06745111263581614</v>
+        <v>0.03259464525857961</v>
       </c>
       <c r="K7">
-        <v>1.659919588631265</v>
+        <v>1.379421438002003</v>
       </c>
       <c r="L7">
-        <v>0.0899867711159085</v>
+        <v>0.01479103897178444</v>
       </c>
       <c r="M7">
-        <v>0.6312150412148438</v>
+        <v>2.123278735041486</v>
       </c>
       <c r="N7">
-        <v>0.003212259689786366</v>
+        <v>0.003915595141108417</v>
       </c>
       <c r="O7">
-        <v>6.293643592427737E-07</v>
+        <v>-2.205771342978822E-06</v>
       </c>
       <c r="P7">
-        <v>0.003389902835161276</v>
+        <v>0.002887217742010529</v>
       </c>
       <c r="Q7">
-        <v>0.005516683497759971</v>
+        <v>0.004960198523409385</v>
       </c>
       <c r="R7">
-        <v>0.006030270432513024</v>
+        <v>0.005064426458986426</v>
       </c>
       <c r="S7">
-        <v>0.04233379405628631</v>
+        <v>0.006986423768767361</v>
       </c>
       <c r="T7">
-        <v>1.443339818750063E-08</v>
+        <v>2.303650150420008E-08</v>
       </c>
       <c r="U7">
-        <v>4.897914771048605E-06</v>
+        <v>2.826953868686616E-06</v>
       </c>
       <c r="V7">
-        <v>0.4957872295218361</v>
+        <v>0.02732441745665509</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -969,67 +966,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.001022410066095151</v>
+        <v>-0.0003115072772766376</v>
       </c>
       <c r="C8">
-        <v>0.1671249428568392</v>
+        <v>-2.091157201650678</v>
       </c>
       <c r="D8">
-        <v>0.02542561160875021</v>
+        <v>-0.1048303068419691</v>
       </c>
       <c r="E8">
-        <v>0.03525272080351417</v>
+        <v>-0.1494219353261816</v>
       </c>
       <c r="F8">
-        <v>7.355646476855473</v>
+        <v>-5.012678632364973</v>
       </c>
       <c r="G8">
-        <v>0.06922828462367782</v>
+        <v>-0.01911710926619171</v>
       </c>
       <c r="H8">
-        <v>5.755860513062121E-05</v>
+        <v>-5.107723931601181E-05</v>
       </c>
       <c r="I8">
-        <v>5.097098925955963E-06</v>
+        <v>-9.19443336112588E-06</v>
       </c>
       <c r="J8">
-        <v>0.01405179601617275</v>
+        <v>-0.01848902446583089</v>
       </c>
       <c r="K8">
-        <v>0.3317613424254143</v>
+        <v>-1.445445744447196</v>
       </c>
       <c r="L8">
-        <v>0.002150464193902244</v>
+        <v>0.001344091900879328</v>
       </c>
       <c r="M8">
-        <v>0.001500136603377085</v>
+        <v>-0.00418445715665179</v>
       </c>
       <c r="N8">
-        <v>0.006047829516795218</v>
+        <v>-0.0002959822069356603</v>
       </c>
       <c r="O8">
-        <v>6.892006735589858E-08</v>
+        <v>-3.082511815121887E-07</v>
       </c>
       <c r="P8">
-        <v>0.0004143913475574357</v>
+        <v>-0.0001453288707421482</v>
       </c>
       <c r="Q8">
-        <v>0.0003686160854540636</v>
+        <v>-0.0004398889180655553</v>
       </c>
       <c r="R8">
-        <v>0.0003943382353830242</v>
+        <v>-0.0004485041300969249</v>
       </c>
       <c r="S8">
-        <v>0.001892874627284955</v>
+        <v>-0.001904021536347295</v>
       </c>
       <c r="T8">
-        <v>8.929309321015938E-10</v>
+        <v>-6.196312520016903E-09</v>
       </c>
       <c r="U8">
-        <v>5.423183344659127E-07</v>
+        <v>-2.427839523209208E-06</v>
       </c>
       <c r="V8">
-        <v>0.02615081602738607</v>
+        <v>-0.006439202500195244</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1037,67 +1034,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.006959574691050885</v>
+        <v>-0.0003027668862585646</v>
       </c>
       <c r="C9">
-        <v>0.6155803870970238</v>
+        <v>-2.221943816217193</v>
       </c>
       <c r="D9">
-        <v>0.269075098636913</v>
+        <v>-0.1850631261163696</v>
       </c>
       <c r="E9">
-        <v>0.3180248934263792</v>
+        <v>-0.2545303525547006</v>
       </c>
       <c r="F9">
-        <v>24.63805979128312</v>
+        <v>-4.952473537621683</v>
       </c>
       <c r="G9">
-        <v>0.1593620578017891</v>
+        <v>-0.01877483545413637</v>
       </c>
       <c r="H9">
-        <v>-0.0002195002737054654</v>
+        <v>-5.135087982414839E-05</v>
       </c>
       <c r="I9">
-        <v>0.001596620081800124</v>
+        <v>-1.187452102574402E-05</v>
       </c>
       <c r="J9">
-        <v>0.03259464525857961</v>
+        <v>-0.04147360693997158</v>
       </c>
       <c r="K9">
-        <v>1.379421438002003</v>
+        <v>-2.983676682271139</v>
       </c>
       <c r="L9">
-        <v>0.01479103897178444</v>
+        <v>0.001162910245153221</v>
       </c>
       <c r="M9">
-        <v>2.123278735041486</v>
+        <v>-0.004256697209035031</v>
       </c>
       <c r="N9">
-        <v>0.003915595141108417</v>
+        <v>0.0001473898362439163</v>
       </c>
       <c r="O9">
-        <v>-2.205771342978822E-06</v>
+        <v>-4.537780288541425E-07</v>
       </c>
       <c r="P9">
-        <v>0.002887217742010529</v>
+        <v>-0.0001344152383106158</v>
       </c>
       <c r="Q9">
-        <v>0.004960198523409385</v>
+        <v>-0.000494123457228843</v>
       </c>
       <c r="R9">
-        <v>0.005064426458986426</v>
+        <v>-0.0005021256219423671</v>
       </c>
       <c r="S9">
-        <v>0.006986423768767361</v>
+        <v>-0.002269543775605481</v>
       </c>
       <c r="T9">
-        <v>2.303650150420008E-08</v>
+        <v>-6.634298467886909E-09</v>
       </c>
       <c r="U9">
-        <v>2.826953868686616E-06</v>
+        <v>-2.970549600972914E-06</v>
       </c>
       <c r="V9">
-        <v>0.02732441745665509</v>
+        <v>-0.006767700563910594</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1105,67 +1102,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.0003115072772766376</v>
+        <v>6.970885161799645E-05</v>
       </c>
       <c r="C10">
-        <v>-2.091157201650678</v>
+        <v>0.007750428368530036</v>
       </c>
       <c r="D10">
-        <v>-0.1048303068419691</v>
+        <v>0.001963052973302197</v>
       </c>
       <c r="E10">
-        <v>-0.1494219353261816</v>
+        <v>0.002463712899657144</v>
       </c>
       <c r="F10">
-        <v>-5.012678632364973</v>
+        <v>0.208504356835426</v>
       </c>
       <c r="G10">
-        <v>-0.01911710926619171</v>
+        <v>0.001164962682293102</v>
       </c>
       <c r="H10">
-        <v>-5.107723931601181E-05</v>
+        <v>1.873825993060351E-06</v>
       </c>
       <c r="I10">
-        <v>-9.19443336112588E-06</v>
+        <v>1.767441047931277E-07</v>
       </c>
       <c r="J10">
-        <v>-0.01848902446583089</v>
+        <v>0.0004105939526363301</v>
       </c>
       <c r="K10">
-        <v>-1.445445744447196</v>
+        <v>0.03004504543582488</v>
       </c>
       <c r="L10">
-        <v>0.001344091900879328</v>
+        <v>1.261198443885807E-05</v>
       </c>
       <c r="M10">
-        <v>-0.00418445715665179</v>
+        <v>0.0330076638765604</v>
       </c>
       <c r="N10">
-        <v>-0.0002959822069356603</v>
+        <v>2.90722946141913E-06</v>
       </c>
       <c r="O10">
-        <v>-3.082511815121887E-07</v>
+        <v>2.540870915394293E-08</v>
       </c>
       <c r="P10">
-        <v>-0.0001453288707421482</v>
+        <v>2.24502131866027E-05</v>
       </c>
       <c r="Q10">
-        <v>-0.0004398889180655553</v>
+        <v>7.516077840434922E-05</v>
       </c>
       <c r="R10">
-        <v>-0.0004485041300969249</v>
+        <v>7.678655068186669E-05</v>
       </c>
       <c r="S10">
-        <v>-0.001904021536347295</v>
+        <v>5.891298688043092E-05</v>
       </c>
       <c r="T10">
-        <v>-6.196312520016903E-09</v>
+        <v>3.443197696960507E-10</v>
       </c>
       <c r="U10">
-        <v>-2.427839523209208E-06</v>
+        <v>2.973714994189988E-08</v>
       </c>
       <c r="V10">
-        <v>-0.006439202500195244</v>
+        <v>0.0004118731434256427</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1173,67 +1170,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.0003027668862585646</v>
+        <v>0.0003736670236589129</v>
       </c>
       <c r="C11">
-        <v>-2.221943816217193</v>
+        <v>0.03547839049587908</v>
       </c>
       <c r="D11">
-        <v>-0.1850631261163696</v>
+        <v>0.01735694907105558</v>
       </c>
       <c r="E11">
-        <v>-0.2545303525547006</v>
+        <v>0.02142888665605734</v>
       </c>
       <c r="F11">
-        <v>-4.952473537621683</v>
+        <v>1.08772467076365</v>
       </c>
       <c r="G11">
-        <v>-0.01877483545413637</v>
+        <v>0.008745847035132231</v>
       </c>
       <c r="H11">
-        <v>-5.135087982414839E-05</v>
+        <v>1.429857800259269E-05</v>
       </c>
       <c r="I11">
-        <v>-1.187452102574402E-05</v>
+        <v>1.527606166648513E-06</v>
       </c>
       <c r="J11">
-        <v>-0.04147360693997158</v>
+        <v>0.005329533761771242</v>
       </c>
       <c r="K11">
-        <v>-2.983676682271139</v>
+        <v>0.1728108968507125</v>
       </c>
       <c r="L11">
-        <v>0.001162910245153221</v>
+        <v>8.878999523943743E-05</v>
       </c>
       <c r="M11">
-        <v>-0.004256697209035031</v>
+        <v>0.1748642707867937</v>
       </c>
       <c r="N11">
-        <v>0.0001473898362439163</v>
+        <v>0.0004609133789210601</v>
       </c>
       <c r="O11">
-        <v>-4.537780288541425E-07</v>
+        <v>1.678931465040101E-07</v>
       </c>
       <c r="P11">
-        <v>-0.0001344152383106158</v>
+        <v>0.0001317687003427577</v>
       </c>
       <c r="Q11">
-        <v>-0.000494123457228843</v>
+        <v>0.0004362982491935055</v>
       </c>
       <c r="R11">
-        <v>-0.0005021256219423671</v>
+        <v>0.0004458788687040305</v>
       </c>
       <c r="S11">
-        <v>-0.002269543775605481</v>
+        <v>0.000388122936167078</v>
       </c>
       <c r="T11">
-        <v>-6.634298467886909E-09</v>
+        <v>1.82286267167291E-09</v>
       </c>
       <c r="U11">
-        <v>-2.970549600972914E-06</v>
+        <v>1.74228764876444E-07</v>
       </c>
       <c r="V11">
-        <v>-0.006767700563910594</v>
+        <v>0.00290556594984228</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1241,67 +1238,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>6.970885161799645E-05</v>
+        <v>0.008446596666690849</v>
       </c>
       <c r="C12">
-        <v>0.007750428368530036</v>
+        <v>0.8152284294994533</v>
       </c>
       <c r="D12">
-        <v>0.001963052973302197</v>
+        <v>0.5096466935401901</v>
       </c>
       <c r="E12">
-        <v>0.002463712899657144</v>
+        <v>0.6197106991991371</v>
       </c>
       <c r="F12">
-        <v>0.208504356835426</v>
+        <v>34.2486056656309</v>
       </c>
       <c r="G12">
-        <v>0.001164962682293102</v>
+        <v>0.1986025894297151</v>
       </c>
       <c r="H12">
-        <v>1.873825993060351E-06</v>
+        <v>0.0004588961586721512</v>
       </c>
       <c r="I12">
-        <v>1.767441047931277E-07</v>
+        <v>0.001235671648824197</v>
       </c>
       <c r="J12">
-        <v>0.0004105939526363301</v>
+        <v>0.1042438578425097</v>
       </c>
       <c r="K12">
-        <v>0.03004504543582488</v>
+        <v>4.278608265498216</v>
       </c>
       <c r="L12">
-        <v>1.261198443885807E-05</v>
+        <v>0.01762965181583694</v>
       </c>
       <c r="M12">
-        <v>0.0330076638765604</v>
+        <v>2.822853464977131</v>
       </c>
       <c r="N12">
-        <v>2.90722946141913E-06</v>
+        <v>0.002063281451238052</v>
       </c>
       <c r="O12">
-        <v>2.540870915394293E-08</v>
+        <v>1.929764466280148E-06</v>
       </c>
       <c r="P12">
-        <v>2.24502131866027E-05</v>
+        <v>0.003115942799661397</v>
       </c>
       <c r="Q12">
-        <v>7.516077840434922E-05</v>
+        <v>0.007495162057373381</v>
       </c>
       <c r="R12">
-        <v>7.678655068186669E-05</v>
+        <v>0.007669981519176996</v>
       </c>
       <c r="S12">
-        <v>5.891298688043092E-05</v>
+        <v>0.008047584300430677</v>
       </c>
       <c r="T12">
-        <v>3.443197696960507E-10</v>
+        <v>3.121155923449256E-08</v>
       </c>
       <c r="U12">
-        <v>2.973714994189988E-08</v>
+        <v>4.06232814270075E-06</v>
       </c>
       <c r="V12">
-        <v>0.0004118731434256427</v>
+        <v>0.05658618263976536</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1309,67 +1306,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.0003736670236589129</v>
+        <v>0.005772319522611355</v>
       </c>
       <c r="C13">
-        <v>0.03547839049587908</v>
+        <v>2.224921684457807</v>
       </c>
       <c r="D13">
-        <v>0.01735694907105558</v>
+        <v>0.06086610701672942</v>
       </c>
       <c r="E13">
-        <v>0.02142888665605734</v>
+        <v>0.08128839694623378</v>
       </c>
       <c r="F13">
-        <v>1.08772467076365</v>
+        <v>7.538244155922095</v>
       </c>
       <c r="G13">
-        <v>0.008745847035132231</v>
+        <v>1.300874184788209</v>
       </c>
       <c r="H13">
-        <v>1.429857800259269E-05</v>
+        <v>0.0006950721282887574</v>
       </c>
       <c r="I13">
-        <v>1.527606166648513E-06</v>
+        <v>0.0001565284558271611</v>
       </c>
       <c r="J13">
-        <v>0.005329533761771242</v>
+        <v>0.06745111263581614</v>
       </c>
       <c r="K13">
-        <v>0.1728108968507125</v>
+        <v>1.659919588631265</v>
       </c>
       <c r="L13">
-        <v>8.878999523943743E-05</v>
+        <v>0.0899867711159085</v>
       </c>
       <c r="M13">
-        <v>0.1748642707867937</v>
+        <v>0.6312150412148438</v>
       </c>
       <c r="N13">
-        <v>0.0004609133789210601</v>
+        <v>0.003212259689786366</v>
       </c>
       <c r="O13">
-        <v>1.678931465040101E-07</v>
+        <v>6.293643592427737E-07</v>
       </c>
       <c r="P13">
-        <v>0.0001317687003427577</v>
+        <v>0.003389902835161276</v>
       </c>
       <c r="Q13">
-        <v>0.0004362982491935055</v>
+        <v>0.005516683497759971</v>
       </c>
       <c r="R13">
-        <v>0.0004458788687040305</v>
+        <v>0.006030270432513024</v>
       </c>
       <c r="S13">
-        <v>0.000388122936167078</v>
+        <v>0.04233379405628631</v>
       </c>
       <c r="T13">
-        <v>1.82286267167291E-09</v>
+        <v>1.443339818750063E-08</v>
       </c>
       <c r="U13">
-        <v>1.74228764876444E-07</v>
+        <v>4.897914771048605E-06</v>
       </c>
       <c r="V13">
-        <v>0.00290556594984228</v>
+        <v>0.4957872295218361</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1377,67 +1374,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.008446596666690849</v>
+        <v>6.882498100632453E-05</v>
       </c>
       <c r="C14">
-        <v>0.8152284294994533</v>
+        <v>0.01584249264905101</v>
       </c>
       <c r="D14">
-        <v>0.5096466935401901</v>
+        <v>0.002611132608374289</v>
       </c>
       <c r="E14">
-        <v>0.6197106991991371</v>
+        <v>0.003538570661091905</v>
       </c>
       <c r="F14">
-        <v>34.2486056656309</v>
+        <v>0.5116859211889656</v>
       </c>
       <c r="G14">
-        <v>0.1986025894297151</v>
+        <v>0.004237171167852238</v>
       </c>
       <c r="H14">
-        <v>0.0004588961586721512</v>
+        <v>1.198143062871619E-05</v>
       </c>
       <c r="I14">
-        <v>0.001235671648824197</v>
+        <v>7.406041439450125E-07</v>
       </c>
       <c r="J14">
-        <v>0.1042438578425097</v>
+        <v>0.008696322030230737</v>
       </c>
       <c r="K14">
-        <v>4.278608265498216</v>
+        <v>0.04841575022375953</v>
       </c>
       <c r="L14">
-        <v>0.01762965181583694</v>
+        <v>-0.0001860635691002214</v>
       </c>
       <c r="M14">
-        <v>2.822853464977131</v>
+        <v>0.001309763712994054</v>
       </c>
       <c r="N14">
-        <v>0.002063281451238052</v>
+        <v>0.001005514545091814</v>
       </c>
       <c r="O14">
-        <v>1.929764466280148E-06</v>
+        <v>3.926309181799446E-09</v>
       </c>
       <c r="P14">
-        <v>0.003115942799661397</v>
+        <v>5.90707743283763E-05</v>
       </c>
       <c r="Q14">
-        <v>0.007495162057373381</v>
+        <v>3.990717517136661E-05</v>
       </c>
       <c r="R14">
-        <v>0.007669981519176996</v>
+        <v>4.250385922867566E-05</v>
       </c>
       <c r="S14">
-        <v>0.008047584300430677</v>
+        <v>8.917667619550196E-05</v>
       </c>
       <c r="T14">
-        <v>3.121155923449256E-08</v>
+        <v>9.210636727057058E-11</v>
       </c>
       <c r="U14">
-        <v>4.06232814270075E-06</v>
+        <v>9.19823558466813E-08</v>
       </c>
       <c r="V14">
-        <v>0.05658618263976536</v>
+        <v>0.001162499706500579</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1445,67 +1442,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>6.882498100632453E-05</v>
+        <v>3.708647568667561E-05</v>
       </c>
       <c r="C15">
-        <v>0.01584249264905101</v>
+        <v>0.003338416857872192</v>
       </c>
       <c r="D15">
-        <v>0.002611132608374289</v>
+        <v>0.002499280188076354</v>
       </c>
       <c r="E15">
-        <v>0.003538570661091905</v>
+        <v>0.00304733508603123</v>
       </c>
       <c r="F15">
-        <v>0.5116859211889656</v>
+        <v>0.1585704030587303</v>
       </c>
       <c r="G15">
-        <v>0.004237171167852238</v>
+        <v>0.0007670950820896252</v>
       </c>
       <c r="H15">
-        <v>1.198143062871619E-05</v>
+        <v>1.458626220652313E-06</v>
       </c>
       <c r="I15">
-        <v>7.406041439450125E-07</v>
+        <v>1.286843342549796E-07</v>
       </c>
       <c r="J15">
-        <v>0.008696322030230737</v>
+        <v>0.0005170129990064538</v>
       </c>
       <c r="K15">
-        <v>0.04841575022375953</v>
+        <v>0.01972150826347731</v>
       </c>
       <c r="L15">
-        <v>-0.0001860635691002214</v>
+        <v>1.608537392968994E-05</v>
       </c>
       <c r="M15">
-        <v>0.001309763712994054</v>
+        <v>0.01315159688228937</v>
       </c>
       <c r="N15">
-        <v>0.001005514545091814</v>
+        <v>2.294984495309616E-06</v>
       </c>
       <c r="O15">
-        <v>3.926309181799446E-09</v>
+        <v>1.286921467228347E-08</v>
       </c>
       <c r="P15">
-        <v>5.90707743283763E-05</v>
+        <v>1.293174754731441E-05</v>
       </c>
       <c r="Q15">
-        <v>3.990717517136661E-05</v>
+        <v>3.492261037109429E-05</v>
       </c>
       <c r="R15">
-        <v>4.250385922867566E-05</v>
+        <v>3.572138048556811E-05</v>
       </c>
       <c r="S15">
-        <v>8.917667619550196E-05</v>
+        <v>3.101371746142872E-05</v>
       </c>
       <c r="T15">
-        <v>9.210636727057058E-11</v>
+        <v>1.432707789572502E-10</v>
       </c>
       <c r="U15">
-        <v>9.19823558466813E-08</v>
+        <v>1.754646709328267E-08</v>
       </c>
       <c r="V15">
-        <v>0.001162499706500579</v>
+        <v>0.0002378859951207407</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1513,67 +1510,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>3.708647568667561E-05</v>
+        <v>0.0002400585033666368</v>
       </c>
       <c r="C16">
-        <v>0.003338416857872192</v>
+        <v>0.1932148933393303</v>
       </c>
       <c r="D16">
-        <v>0.002499280188076354</v>
+        <v>0.005356596881847414</v>
       </c>
       <c r="E16">
-        <v>0.00304733508603123</v>
+        <v>0.00906275235105829</v>
       </c>
       <c r="F16">
-        <v>0.1585704030587303</v>
+        <v>3.722526483867722</v>
       </c>
       <c r="G16">
-        <v>0.0007670950820896252</v>
+        <v>0.06151576173720417</v>
       </c>
       <c r="H16">
-        <v>1.458626220652313E-06</v>
+        <v>1.936117973647098E-05</v>
       </c>
       <c r="I16">
-        <v>1.286843342549796E-07</v>
+        <v>5.244946174755569E-06</v>
       </c>
       <c r="J16">
-        <v>0.0005170129990064538</v>
+        <v>0.002569847225861257</v>
       </c>
       <c r="K16">
-        <v>0.01972150826347731</v>
+        <v>0.1633231697340142</v>
       </c>
       <c r="L16">
-        <v>1.608537392968994E-05</v>
+        <v>0.0008394809426241423</v>
       </c>
       <c r="M16">
-        <v>0.01315159688228937</v>
+        <v>0.00799781755081134</v>
       </c>
       <c r="N16">
-        <v>2.294984495309616E-06</v>
+        <v>0.0008360682943880737</v>
       </c>
       <c r="O16">
-        <v>1.286921467228347E-08</v>
+        <v>8.61259496400092E-08</v>
       </c>
       <c r="P16">
-        <v>1.293174754731441E-05</v>
+        <v>0.0001479688966896724</v>
       </c>
       <c r="Q16">
-        <v>3.492261037109429E-05</v>
+        <v>0.0003069426475869923</v>
       </c>
       <c r="R16">
-        <v>3.572138048556811E-05</v>
+        <v>0.0003484561825682546</v>
       </c>
       <c r="S16">
-        <v>3.101371746142872E-05</v>
+        <v>0.0002864910406024172</v>
       </c>
       <c r="T16">
-        <v>1.432707789572502E-10</v>
+        <v>7.680304528458132E-10</v>
       </c>
       <c r="U16">
-        <v>1.754646709328267E-08</v>
+        <v>3.190607228337773E-07</v>
       </c>
       <c r="V16">
-        <v>0.0002378859951207407</v>
+        <v>0.02591120977792728</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1581,134 +1578,66 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.0002400585033666368</v>
+        <v>0.003211433265005348</v>
       </c>
       <c r="C17">
-        <v>0.1932148933393303</v>
+        <v>1.192351072435683</v>
       </c>
       <c r="D17">
-        <v>0.005356596881847414</v>
+        <v>0.04087487250203924</v>
       </c>
       <c r="E17">
-        <v>0.00906275235105829</v>
+        <v>0.05159470031773672</v>
       </c>
       <c r="F17">
-        <v>3.722526483867722</v>
+        <v>7.351983692196586</v>
       </c>
       <c r="G17">
-        <v>0.06151576173720417</v>
+        <v>0.258978243268646</v>
       </c>
       <c r="H17">
-        <v>1.936117973647098E-05</v>
+        <v>0.0005037090586902992</v>
       </c>
       <c r="I17">
-        <v>5.244946174755569E-06</v>
+        <v>-0.002462599941668865</v>
       </c>
       <c r="J17">
-        <v>0.002569847225861257</v>
+        <v>0.0242525271059492</v>
       </c>
       <c r="K17">
-        <v>0.1633231697340142</v>
+        <v>2.397394010698161</v>
       </c>
       <c r="L17">
-        <v>0.0008394809426241423</v>
+        <v>0.05817103547925804</v>
       </c>
       <c r="M17">
-        <v>0.00799781755081134</v>
+        <v>2.002549867863395</v>
       </c>
       <c r="N17">
-        <v>0.0008360682943880737</v>
+        <v>0.001342251417646337</v>
       </c>
       <c r="O17">
-        <v>8.61259496400092E-08</v>
+        <v>3.000385314802691E-07</v>
       </c>
       <c r="P17">
-        <v>0.0001479688966896724</v>
+        <v>0.002814346002653318</v>
       </c>
       <c r="Q17">
-        <v>0.0003069426475869923</v>
+        <v>0.004199702845606006</v>
       </c>
       <c r="R17">
-        <v>0.0003484561825682546</v>
+        <v>0.004308237709087549</v>
       </c>
       <c r="S17">
-        <v>0.0002864910406024172</v>
+        <v>0.06643524728936354</v>
       </c>
       <c r="T17">
-        <v>7.680304528458132E-10</v>
+        <v>2.278455610848952E-08</v>
       </c>
       <c r="U17">
-        <v>3.190607228337773E-07</v>
+        <v>3.655687322158801E-06</v>
       </c>
       <c r="V17">
-        <v>0.02591120977792728</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>0.003211433265005348</v>
-      </c>
-      <c r="C18">
-        <v>1.192351072435683</v>
-      </c>
-      <c r="D18">
-        <v>0.04087487250203924</v>
-      </c>
-      <c r="E18">
-        <v>0.05159470031773672</v>
-      </c>
-      <c r="F18">
-        <v>7.351983692196586</v>
-      </c>
-      <c r="G18">
-        <v>0.258978243268646</v>
-      </c>
-      <c r="H18">
-        <v>0.0005037090586902992</v>
-      </c>
-      <c r="I18">
-        <v>-0.002462599941668865</v>
-      </c>
-      <c r="J18">
-        <v>0.0242525271059492</v>
-      </c>
-      <c r="K18">
-        <v>2.397394010698161</v>
-      </c>
-      <c r="L18">
-        <v>0.05817103547925804</v>
-      </c>
-      <c r="M18">
-        <v>2.002549867863395</v>
-      </c>
-      <c r="N18">
-        <v>0.001342251417646337</v>
-      </c>
-      <c r="O18">
-        <v>3.000385314802691E-07</v>
-      </c>
-      <c r="P18">
-        <v>0.002814346002653318</v>
-      </c>
-      <c r="Q18">
-        <v>0.004199702845606006</v>
-      </c>
-      <c r="R18">
-        <v>0.004308237709087549</v>
-      </c>
-      <c r="S18">
-        <v>0.06643524728936354</v>
-      </c>
-      <c r="T18">
-        <v>2.278455610848952E-08</v>
-      </c>
-      <c r="U18">
-        <v>3.655687322158801E-06</v>
-      </c>
-      <c r="V18">
         <v>0.0860884977144523</v>
       </c>
     </row>
